--- a/Consumer/Hermes.xlsx
+++ b/Consumer/Hermes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C303B6BE-D7EC-3C49-8B82-8DD19DB22625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7FCEE1-D538-2643-AD46-A6DCFECFF522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1785,10 +1785,12 @@
       <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodities"/>
+      <sheetName val="Basic Materials"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="GARP"/>
+      <sheetName val="Fidelity"/>
+      <sheetName val="Schwab"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1808,7 +1810,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1821,6 +1823,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1948,9 +1952,9 @@
     <v>Powered by Refinitiv</v>
     <v>2050.5</v>
     <v>1432</v>
-    <v>0.73170000000000002</v>
-    <v>11</v>
-    <v>5.777E-3</v>
+    <v>0.73209999999999997</v>
+    <v>29</v>
+    <v>1.4846E-2</v>
     <v>EUR</v>
     <v>Hermes International SCA is a France-based company specialized in the design, manufacturing, and marketing of luxury products. The Company reports its businesses into a number segments, including Leather Goods and Saddler, which includes bags, riding, diaries and small leather goods; Ready-to-wear and Accessories, which includes Hermes ready-to-wear for men and women, belts, costume jewellery, gloves, hats and shoes; Other Hermes, which encompasses jewellery and hermes home products, such as the art of living and hermes tableware; Other product segment, which includes the production activities carried out on behalf of non-group brands, as well as the John Lobb, Saint-Louis, Puiforcat and Shang Xia products; Silk and Textiles; Perfumes, and Watches. Apart from France, Hermes International SCA is present in other countries in Europe, Asia and the Americas, among others.</v>
     <v>20607</v>
@@ -1958,24 +1962,24 @@
     <v>XPAR</v>
     <v>XPAR</v>
     <v>24 rue du Faubourg Saint Honore, PARIS, ILE-DE-FRANCE, 75008 FR</v>
-    <v>1923.6</v>
+    <v>1990.8</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45261.708333333336</v>
+    <v>45268.708333333336</v>
     <v>0</v>
-    <v>1906</v>
-    <v>202186500000</v>
+    <v>1952.4</v>
+    <v>209280800000</v>
     <v>Hermes International SCA</v>
     <v>Hermes International SCA</v>
-    <v>1909.2</v>
-    <v>50.4129</v>
-    <v>1904.2</v>
-    <v>1915.2</v>
+    <v>1953.2</v>
+    <v>51.715400000000002</v>
+    <v>1953.4</v>
+    <v>1982.4</v>
     <v>105569400</v>
     <v>RMS</v>
     <v>Hermes International SCA (XPAR:RMS)</v>
-    <v>44098</v>
-    <v>46920</v>
+    <v>56295</v>
+    <v>48550</v>
     <v>1957</v>
   </rv>
   <rv s="2">
@@ -1994,16 +1998,16 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>1.1274999999999999</v>
-    <v>1.0287999999999999</v>
-    <v>-5.0000000000000001E-4</v>
-    <v>-4.593E-4</v>
+    <v>1.0441</v>
+    <v>-3.0999999999999999E-3</v>
+    <v>-2.872E-3</v>
     <v>USD</v>
     <v>EUR</v>
     <v>Currency Pair</v>
-    <v>45261.916666666664</v>
+    <v>45268.916666666664</v>
     <v>Euro/US Dollar FX Spot Rate</v>
-    <v>1.0886</v>
-    <v>1.0881000000000001</v>
+    <v>1.0791999999999999</v>
+    <v>1.0761000000000001</v>
     <v>EURUSD</v>
     <v>EUR/USD</v>
   </rv>
@@ -2696,7 +2700,7 @@
   <dimension ref="A1:S194"/>
   <sheetViews>
     <sheetView topLeftCell="A115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="P134" sqref="P134"/>
     </sheetView>
   </sheetViews>
@@ -14082,7 +14086,7 @@
   <dimension ref="A1:R110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14101,7 +14105,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)*K8</f>
-        <v>220100223900</v>
+        <v>225855839360</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>253</v>
@@ -14121,22 +14125,22 @@
         <v>203</v>
       </c>
       <c r="G3" s="40">
-        <f>AVERAGE(Financials!N129:S129)</f>
-        <v>-1.670558244231124E-4</v>
+        <f>AVERAGE(Financials!I129:N129)</f>
+        <v>7.5604149981848653E-5</v>
       </c>
       <c r="H3" s="39" t="s">
         <v>204</v>
       </c>
       <c r="I3" s="41">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>126085328150.46881</v>
+        <v>125952466872.72803</v>
       </c>
       <c r="J3" s="42" t="s">
         <v>205</v>
       </c>
       <c r="K3" s="43">
         <f>(Financials!O172*-1)/Model!A3</f>
-        <v>6.8701723433367209E-3</v>
+        <v>6.695095753489754E-3</v>
       </c>
       <c r="L3" s="44" t="s">
         <v>206</v>
@@ -14174,21 +14178,21 @@
       </c>
       <c r="G4" s="50">
         <f>A5*(1+(5*G3))</f>
-        <v>105481220.08424573</v>
+        <v>105609307.42375548</v>
       </c>
       <c r="H4" s="49" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="51">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>109459858250.04823</v>
+        <v>109358573045.32025</v>
       </c>
       <c r="J4" s="49" t="s">
         <v>212</v>
       </c>
       <c r="K4" s="52" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>5.777E-3</v>
+        <v>1.4846E-2</v>
       </c>
       <c r="L4" s="53" t="s">
         <v>213</v>
@@ -14233,14 +14237,14 @@
       </c>
       <c r="I5" s="51">
         <f>I4+G5-G6</f>
-        <v>117490711753.04823</v>
+        <v>117389426548.32025</v>
       </c>
       <c r="J5" s="49" t="s">
         <v>219</v>
       </c>
       <c r="K5" s="55" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")*K8</f>
-        <v>2084.88672</v>
+        <v>2139.4060799999997</v>
       </c>
       <c r="L5" s="56" t="s">
         <v>252</v>
@@ -14260,7 +14264,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="59">
         <f>O20/F10</f>
-        <v>15.087418849339601</v>
+        <v>15.616804716065966</v>
       </c>
       <c r="B6" s="47" t="s">
         <v>221</v>
@@ -14288,14 +14292,14 @@
       </c>
       <c r="I6" s="60">
         <f>N25</f>
-        <v>7.1903312120047094E-2</v>
+        <v>7.154735350220788E-2</v>
       </c>
       <c r="J6" s="49" t="s">
         <v>224</v>
       </c>
       <c r="K6" s="61">
         <f>(I5/G4)</f>
-        <v>1113.8543113097362</v>
+        <v>1111.5443270288408</v>
       </c>
       <c r="L6" s="62" t="s">
         <v>251</v>
@@ -14315,14 +14319,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63">
         <f>O20/F12</f>
-        <v>50.17034739454094</v>
+        <v>51.930719602977668</v>
       </c>
       <c r="B7" s="64" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="65">
         <f>F15/A3</f>
-        <v>1.7805343086704603E-2</v>
+        <v>1.7201769106387207E-2</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>227</v>
@@ -14349,7 +14353,7 @@
       </c>
       <c r="K7" s="71">
         <f>K6/K5-1</f>
-        <v>-0.46574828232886623</v>
+        <v>-0.48044256888863246</v>
       </c>
       <c r="L7" s="72" t="s">
         <v>230</v>
@@ -14379,7 +14383,7 @@
       <c r="J8" s="45"/>
       <c r="K8" s="74" cm="1">
         <f t="array" ref="K8">_FV(L8,"Previous close",TRUE)</f>
-        <v>1.0886</v>
+        <v>1.0791999999999999</v>
       </c>
       <c r="L8" s="75" t="e" vm="2">
         <v>#VALUE!</v>
@@ -14459,23 +14463,23 @@
       </c>
       <c r="F10" s="86">
         <f>13401000000*$K$8</f>
-        <v>14588328600</v>
+        <v>14462359200</v>
       </c>
       <c r="G10" s="86">
         <f>14965000000*$K$8</f>
-        <v>16290899000</v>
+        <v>16150228000</v>
       </c>
       <c r="H10" s="86">
         <f>16548000000*$K$8</f>
-        <v>18014152800</v>
+        <v>17858601600</v>
       </c>
       <c r="I10" s="86">
         <f>18345000000*$K$8</f>
-        <v>19970367000</v>
+        <v>19797924000</v>
       </c>
       <c r="J10" s="87">
         <f>19750000000*$K$8</f>
-        <v>21499850000</v>
+        <v>21314200000</v>
       </c>
       <c r="K10" s="88" t="s">
         <v>234</v>
@@ -14509,7 +14513,7 @@
       </c>
       <c r="F11" s="91">
         <f t="shared" si="0"/>
-        <v>0.17827066671513392</v>
+        <v>0.16809636553276919</v>
       </c>
       <c r="G11" s="90">
         <f t="shared" si="0"/>
@@ -14529,7 +14533,7 @@
       </c>
       <c r="K11" s="92">
         <f>SUM(F11:J11)/5</f>
-        <v>0.11718786766189586</v>
+        <v>0.11515300742542292</v>
       </c>
       <c r="L11" s="84"/>
       <c r="M11" s="84"/>
@@ -14562,23 +14566,23 @@
       </c>
       <c r="F12" s="94">
         <f>4030000000*$K$8</f>
-        <v>4387058000</v>
+        <v>4349176000</v>
       </c>
       <c r="G12" s="86">
         <f>4468000000*$K$8</f>
-        <v>4863864800</v>
+        <v>4821865600</v>
       </c>
       <c r="H12" s="86">
         <f>4887000000*$K$8</f>
-        <v>5319988200</v>
+        <v>5274050400</v>
       </c>
       <c r="I12" s="86">
         <f>5129000000*$K$8</f>
-        <v>5583429400</v>
+        <v>5535216800</v>
       </c>
       <c r="J12" s="87">
         <f>5141000000*$K$8</f>
-        <v>5596492600</v>
+        <v>5548167200</v>
       </c>
       <c r="K12" s="95" t="s">
         <v>237</v>
@@ -14613,7 +14617,7 @@
       </c>
       <c r="F13" s="91">
         <f t="shared" si="1"/>
-        <v>0.22085817402376073</v>
+        <v>0.21031613210218869</v>
       </c>
       <c r="G13" s="90">
         <f t="shared" si="1"/>
@@ -14633,7 +14637,7 @@
       </c>
       <c r="K13" s="92">
         <f>SUM(F13:J13)/5</f>
-        <v>9.5035956803794036E-2</v>
+        <v>9.292754841947963E-2</v>
       </c>
       <c r="L13" s="84"/>
       <c r="M13" s="84"/>
@@ -14693,7 +14697,7 @@
       </c>
       <c r="O14" s="93">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="45"/>
       <c r="Q14" s="45"/>
@@ -14717,23 +14721,23 @@
       </c>
       <c r="F15" s="94">
         <f>3600000000*$K$8</f>
-        <v>3918960000</v>
+        <v>3885120000</v>
       </c>
       <c r="G15" s="86">
         <f>4300000000*$K$8</f>
-        <v>4680980000</v>
+        <v>4640560000</v>
       </c>
       <c r="H15" s="86">
         <f>4860000000*$K$8</f>
-        <v>5290596000</v>
+        <v>5244912000</v>
       </c>
       <c r="I15" s="86">
         <f>5160000000*$K$8</f>
-        <v>5617176000</v>
+        <v>5568672000</v>
       </c>
       <c r="J15" s="87">
         <f>5300000000*$K$8</f>
-        <v>5769580000</v>
+        <v>5719760000</v>
       </c>
       <c r="K15" s="95" t="s">
         <v>242</v>
@@ -14745,7 +14749,7 @@
       </c>
       <c r="O15" s="100" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>0.73170000000000002</v>
+        <v>0.73209999999999997</v>
       </c>
       <c r="P15" s="45"/>
       <c r="Q15" s="45"/>
@@ -14768,7 +14772,7 @@
       </c>
       <c r="F16" s="91">
         <f t="shared" si="3"/>
-        <v>-0.12879730284256152</v>
+        <v>-0.13632008931443351</v>
       </c>
       <c r="G16" s="90">
         <f t="shared" si="3"/>
@@ -14788,7 +14792,7 @@
       </c>
       <c r="K16" s="92">
         <f>SUM(F16:J16)/5</f>
-        <v>5.6947975549776556E-2</v>
+        <v>5.5443418255402152E-2</v>
       </c>
       <c r="L16" s="84"/>
       <c r="M16" s="84"/>
@@ -14850,7 +14854,7 @@
       </c>
       <c r="O17" s="103">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>7.2921893000000002E-2</v>
+        <v>7.2536559E-2</v>
       </c>
       <c r="P17" s="45"/>
       <c r="Q17" s="45"/>
@@ -14932,7 +14936,7 @@
       </c>
       <c r="O20" s="109">
         <f>A3</f>
-        <v>220100223900</v>
+        <v>225855839360</v>
       </c>
       <c r="P20" s="45"/>
       <c r="Q20" s="45"/>
@@ -14962,7 +14966,7 @@
       </c>
       <c r="O21" s="109">
         <f>O19+O20</f>
-        <v>222269132576</v>
+        <v>228024748036</v>
       </c>
       <c r="P21" s="45"/>
       <c r="Q21" s="45"/>
@@ -14990,7 +14994,7 @@
       </c>
       <c r="O22" s="110">
         <f>(O19/O21)</f>
-        <v>9.75802915530068E-3</v>
+        <v>9.5117249100416853E-3</v>
       </c>
       <c r="P22" s="45"/>
       <c r="Q22" s="45"/>
@@ -15015,7 +15019,7 @@
       </c>
       <c r="O23" s="111">
         <f>O20/O21</f>
-        <v>0.99024197084469934</v>
+        <v>0.99048827508995829</v>
       </c>
       <c r="P23" s="45"/>
       <c r="Q23" s="45"/>
@@ -15059,7 +15063,7 @@
       <c r="M25" s="84"/>
       <c r="N25" s="117">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>7.1903312120047094E-2</v>
+        <v>7.154735350220788E-2</v>
       </c>
       <c r="O25" s="118"/>
       <c r="P25" s="45"/>
